--- a/PhoenixCI/Excel_Template/30330.xlsx
+++ b/PhoenixCI/Excel_Template/30330.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C7A4D4-C6E6-4D52-8FDC-B5A73EC4BA21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EA1E27-6F75-4DC3-834D-85F9B19BEBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="30331" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -808,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,13 +821,13 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -842,7 +841,7 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,6 +885,9 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,10 +949,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,10 +988,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,7 +1136,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6BB-45DB-8AC1-EB5631D70F53}"/>
+              <c16:uniqueId val="{00000000-9645-498C-BAD1-B8EDC3D99191}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1181,7 +1186,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6BB-45DB-8AC1-EB5631D70F53}"/>
+              <c16:uniqueId val="{00000001-9645-498C-BAD1-B8EDC3D99191}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1194,7 +1199,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446747464"/>
+        <c:axId val="383145312"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1249,7 +1254,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B6BB-45DB-8AC1-EB5631D70F53}"/>
+              <c16:uniqueId val="{00000002-9645-498C-BAD1-B8EDC3D99191}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1267,7 +1272,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="446747464"/>
+        <c:axId val="383145312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1364,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446747464"/>
+        <c:crossAx val="383145312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -1592,7 +1597,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-F606-4BEE-A615-97E15D052640}"/>
+                <c16:uniqueId val="{00000000-9572-4C0D-AE30-7A396389E3EA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1612,7 +1617,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F606-4BEE-A615-97E15D052640}"/>
+                <c16:uniqueId val="{00000001-9572-4C0D-AE30-7A396389E3EA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1632,7 +1637,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F606-4BEE-A615-97E15D052640}"/>
+                <c16:uniqueId val="{00000002-9572-4C0D-AE30-7A396389E3EA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1652,7 +1657,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F606-4BEE-A615-97E15D052640}"/>
+                <c16:uniqueId val="{00000003-9572-4C0D-AE30-7A396389E3EA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1672,7 +1677,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-F606-4BEE-A615-97E15D052640}"/>
+                <c16:uniqueId val="{00000004-9572-4C0D-AE30-7A396389E3EA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1692,7 +1697,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F606-4BEE-A615-97E15D052640}"/>
+                <c16:uniqueId val="{00000005-9572-4C0D-AE30-7A396389E3EA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1701,7 +1706,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-F606-4BEE-A615-97E15D052640}"/>
+                <c16:uniqueId val="{00000006-9572-4C0D-AE30-7A396389E3EA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1750,7 +1755,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-F606-4BEE-A615-97E15D052640}"/>
+                  <c16:uniqueId val="{00000000-9572-4C0D-AE30-7A396389E3EA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1798,7 +1803,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-F606-4BEE-A615-97E15D052640}"/>
+                  <c16:uniqueId val="{00000001-9572-4C0D-AE30-7A396389E3EA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1846,7 +1851,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F606-4BEE-A615-97E15D052640}"/>
+                  <c16:uniqueId val="{00000002-9572-4C0D-AE30-7A396389E3EA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1894,7 +1899,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F606-4BEE-A615-97E15D052640}"/>
+                  <c16:uniqueId val="{00000003-9572-4C0D-AE30-7A396389E3EA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1942,7 +1947,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-F606-4BEE-A615-97E15D052640}"/>
+                  <c16:uniqueId val="{00000004-9572-4C0D-AE30-7A396389E3EA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1988,7 +1993,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F606-4BEE-A615-97E15D052640}"/>
+                  <c16:uniqueId val="{00000005-9572-4C0D-AE30-7A396389E3EA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2091,7 +2096,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F606-4BEE-A615-97E15D052640}"/>
+              <c16:uniqueId val="{00000007-9572-4C0D-AE30-7A396389E3EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2282,7 +2287,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-C23D-4E73-BA98-FEF076F2361C}"/>
+                <c16:uniqueId val="{00000000-422C-4E1D-A968-031B1C71BDDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2302,7 +2307,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C23D-4E73-BA98-FEF076F2361C}"/>
+                <c16:uniqueId val="{00000001-422C-4E1D-A968-031B1C71BDDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2322,7 +2327,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C23D-4E73-BA98-FEF076F2361C}"/>
+                <c16:uniqueId val="{00000002-422C-4E1D-A968-031B1C71BDDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2342,7 +2347,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C23D-4E73-BA98-FEF076F2361C}"/>
+                <c16:uniqueId val="{00000003-422C-4E1D-A968-031B1C71BDDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2362,7 +2367,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-C23D-4E73-BA98-FEF076F2361C}"/>
+                <c16:uniqueId val="{00000004-422C-4E1D-A968-031B1C71BDDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2382,7 +2387,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C23D-4E73-BA98-FEF076F2361C}"/>
+                <c16:uniqueId val="{00000005-422C-4E1D-A968-031B1C71BDDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2391,7 +2396,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-C23D-4E73-BA98-FEF076F2361C}"/>
+                <c16:uniqueId val="{00000006-422C-4E1D-A968-031B1C71BDDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2438,7 +2443,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-C23D-4E73-BA98-FEF076F2361C}"/>
+                  <c16:uniqueId val="{00000000-422C-4E1D-A968-031B1C71BDDB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2484,7 +2489,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-C23D-4E73-BA98-FEF076F2361C}"/>
+                  <c16:uniqueId val="{00000001-422C-4E1D-A968-031B1C71BDDB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2530,7 +2535,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-C23D-4E73-BA98-FEF076F2361C}"/>
+                  <c16:uniqueId val="{00000002-422C-4E1D-A968-031B1C71BDDB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2576,7 +2581,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C23D-4E73-BA98-FEF076F2361C}"/>
+                  <c16:uniqueId val="{00000003-422C-4E1D-A968-031B1C71BDDB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2622,7 +2627,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-C23D-4E73-BA98-FEF076F2361C}"/>
+                  <c16:uniqueId val="{00000004-422C-4E1D-A968-031B1C71BDDB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2668,7 +2673,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-C23D-4E73-BA98-FEF076F2361C}"/>
+                  <c16:uniqueId val="{00000005-422C-4E1D-A968-031B1C71BDDB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2771,7 +2776,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C23D-4E73-BA98-FEF076F2361C}"/>
+              <c16:uniqueId val="{00000007-422C-4E1D-A968-031B1C71BDDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2898,7 +2903,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9EFAEB-1355-4BCA-BB7A-7328ABDF8E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FD7F25-1893-43AE-9A80-7D2E75A00457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2946,7 @@
         <xdr:cNvPr id="1029" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AE6900-E9EC-4C54-B831-4F4409EAB417}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF700EE3-3629-4683-90A7-8AA96170027A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2989,7 @@
         <xdr:cNvPr id="2053" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D7A817-D652-4AFC-B7D5-F548162AE3EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620539FC-0A99-40F6-A574-8B0CE0148BD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,13 +3372,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -3400,134 +3405,134 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C30" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
         <f>B5-B4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="44"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="18"/>
@@ -3536,8 +3541,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="43"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18"/>
@@ -3546,8 +3551,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="43"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="18"/>
@@ -3556,8 +3561,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="18"/>
@@ -3566,8 +3571,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="43"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
@@ -3576,8 +3581,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="43"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="18"/>
@@ -3586,8 +3591,8 @@
         <f>B22-B21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="43"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="18"/>
@@ -3596,8 +3601,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="18"/>
@@ -3606,8 +3611,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="43"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="18"/>
@@ -3616,8 +3621,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="18"/>
@@ -3626,8 +3631,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="43"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="18"/>
@@ -3636,8 +3641,8 @@
         <f>B27-B26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="18"/>
@@ -3646,8 +3651,8 @@
         <f>B28-B27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="18"/>
@@ -3656,8 +3661,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="43"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="18"/>
@@ -3666,8 +3671,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="43"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="18"/>
@@ -3676,8 +3681,8 @@
         <f>B31-B30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="43"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="18"/>
@@ -3686,8 +3691,8 @@
         <f>B32-B31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="43"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="18"/>
@@ -3696,8 +3701,8 @@
         <f>B33-B32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="43"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="18"/>
@@ -3706,8 +3711,8 @@
         <f>B34-B33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="43"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="1:5" ht="17.25" thickBot="1">
       <c r="A35" s="19"/>
@@ -3716,8 +3721,8 @@
         <f>B35-B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="5"/>
@@ -3805,86 +3810,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="62" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="62" t="s">
+      <c r="O2" s="65"/>
+      <c r="P2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="65"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="67" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="66"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -3935,7 +3940,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -3950,11 +3955,11 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
-      <c r="P5" s="31">
+      <c r="P5" s="32">
         <f>SUM(B5,D5,F5,H5,J5,L5,N5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="33">
         <f>SUM(C5,E5,G5,I5,K5,M5,O5)</f>
         <v>0</v>
       </c>
@@ -3963,7 +3968,7 @@
       <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3978,11 +3983,11 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="31">
+      <c r="P6" s="32">
         <f t="shared" ref="P6:P16" si="0">SUM(B6,D6,F6,H6,J6,L6,N6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="33">
         <f t="shared" ref="Q6:Q16" si="1">SUM(C6,E6,G6,I6,K6,M6,O6)</f>
         <v>0</v>
       </c>
@@ -3991,7 +3996,7 @@
       <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -4006,11 +4011,11 @@
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="31">
+      <c r="P7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4019,7 +4024,7 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -4034,11 +4039,11 @@
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="31">
+      <c r="P8" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4047,26 +4052,26 @@
       <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="31">
+      <c r="A9" s="41"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4074,27 +4079,27 @@
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="1:20" s="26" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="31">
+    <row r="10" spans="1:20" s="27" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4103,26 +4108,26 @@
       <c r="T10" s="25"/>
     </row>
     <row r="11" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="31">
+      <c r="A11" s="41"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4131,26 +4136,26 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="31">
+      <c r="A12" s="41"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4159,26 +4164,26 @@
       <c r="T12" s="25"/>
     </row>
     <row r="13" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="31">
+      <c r="A13" s="41"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4187,26 +4192,26 @@
       <c r="T13" s="25"/>
     </row>
     <row r="14" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="31">
+      <c r="A14" s="41"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4215,26 +4220,26 @@
       <c r="T14" s="25"/>
     </row>
     <row r="15" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="31">
+      <c r="A15" s="41"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4243,26 +4248,26 @@
       <c r="T15" s="25"/>
     </row>
     <row r="16" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="31">
+      <c r="A16" s="41"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4270,153 +4275,153 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="26" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:20" s="27" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="29">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="29">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="32">
         <f>SUM(B17,D17,F17,H17,J17,L17,N17)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="33">
         <f>SUM(C17,E17,G17,I17,K17,M17,O17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-    </row>
-    <row r="18" spans="1:20" s="36" customFormat="1">
-      <c r="A18" s="35" t="s">
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="1:20" s="37" customFormat="1">
+      <c r="A18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="49">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="50">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="50">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="50">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="50">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="50">
         <f>IF( $Q$17 = 0,0, ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="50">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="50">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="50">
         <f>IF( $P$17 = 0,0, ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="50">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="50">
         <f>IF( $P$17 = 0,0, ROUND(L17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="50">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="50">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18 - L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="51">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18- M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="52">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="52">
+      <c r="Q18" s="53">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="O20" s="33"/>
+      <c r="O20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/PhoenixCI/Excel_Template/30330.xlsx
+++ b/PhoenixCI/Excel_Template/30330.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EA1E27-6F75-4DC3-834D-85F9B19BEBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C7A4D4-C6E6-4D52-8FDC-B5A73EC4BA21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="30331" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -807,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,13 +822,13 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -841,7 +842,7 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,9 +886,6 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -949,10 +947,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,13 +986,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,7 +1131,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9645-498C-BAD1-B8EDC3D99191}"/>
+              <c16:uniqueId val="{00000000-B6BB-45DB-8AC1-EB5631D70F53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1186,7 +1181,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9645-498C-BAD1-B8EDC3D99191}"/>
+              <c16:uniqueId val="{00000001-B6BB-45DB-8AC1-EB5631D70F53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1199,7 +1194,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="383145312"/>
+        <c:axId val="446747464"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1254,7 +1249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9645-498C-BAD1-B8EDC3D99191}"/>
+              <c16:uniqueId val="{00000002-B6BB-45DB-8AC1-EB5631D70F53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1272,7 +1267,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="383145312"/>
+        <c:axId val="446747464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1359,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383145312"/>
+        <c:crossAx val="446747464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -1597,7 +1592,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-9572-4C0D-AE30-7A396389E3EA}"/>
+                <c16:uniqueId val="{00000000-F606-4BEE-A615-97E15D052640}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1617,7 +1612,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9572-4C0D-AE30-7A396389E3EA}"/>
+                <c16:uniqueId val="{00000001-F606-4BEE-A615-97E15D052640}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1637,7 +1632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-9572-4C0D-AE30-7A396389E3EA}"/>
+                <c16:uniqueId val="{00000002-F606-4BEE-A615-97E15D052640}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1657,7 +1652,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9572-4C0D-AE30-7A396389E3EA}"/>
+                <c16:uniqueId val="{00000003-F606-4BEE-A615-97E15D052640}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1677,7 +1672,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-9572-4C0D-AE30-7A396389E3EA}"/>
+                <c16:uniqueId val="{00000004-F606-4BEE-A615-97E15D052640}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1697,7 +1692,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9572-4C0D-AE30-7A396389E3EA}"/>
+                <c16:uniqueId val="{00000005-F606-4BEE-A615-97E15D052640}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1706,7 +1701,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-9572-4C0D-AE30-7A396389E3EA}"/>
+                <c16:uniqueId val="{00000006-F606-4BEE-A615-97E15D052640}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1755,7 +1750,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-9572-4C0D-AE30-7A396389E3EA}"/>
+                  <c16:uniqueId val="{00000000-F606-4BEE-A615-97E15D052640}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1803,7 +1798,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-9572-4C0D-AE30-7A396389E3EA}"/>
+                  <c16:uniqueId val="{00000001-F606-4BEE-A615-97E15D052640}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1851,7 +1846,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-9572-4C0D-AE30-7A396389E3EA}"/>
+                  <c16:uniqueId val="{00000002-F606-4BEE-A615-97E15D052640}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1899,7 +1894,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9572-4C0D-AE30-7A396389E3EA}"/>
+                  <c16:uniqueId val="{00000003-F606-4BEE-A615-97E15D052640}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1947,7 +1942,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-9572-4C0D-AE30-7A396389E3EA}"/>
+                  <c16:uniqueId val="{00000004-F606-4BEE-A615-97E15D052640}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1993,7 +1988,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-9572-4C0D-AE30-7A396389E3EA}"/>
+                  <c16:uniqueId val="{00000005-F606-4BEE-A615-97E15D052640}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2096,7 +2091,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9572-4C0D-AE30-7A396389E3EA}"/>
+              <c16:uniqueId val="{00000007-F606-4BEE-A615-97E15D052640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2287,7 +2282,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-422C-4E1D-A968-031B1C71BDDB}"/>
+                <c16:uniqueId val="{00000000-C23D-4E73-BA98-FEF076F2361C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2307,7 +2302,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-422C-4E1D-A968-031B1C71BDDB}"/>
+                <c16:uniqueId val="{00000001-C23D-4E73-BA98-FEF076F2361C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2327,7 +2322,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-422C-4E1D-A968-031B1C71BDDB}"/>
+                <c16:uniqueId val="{00000002-C23D-4E73-BA98-FEF076F2361C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2347,7 +2342,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-422C-4E1D-A968-031B1C71BDDB}"/>
+                <c16:uniqueId val="{00000003-C23D-4E73-BA98-FEF076F2361C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2367,7 +2362,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-422C-4E1D-A968-031B1C71BDDB}"/>
+                <c16:uniqueId val="{00000004-C23D-4E73-BA98-FEF076F2361C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2387,7 +2382,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-422C-4E1D-A968-031B1C71BDDB}"/>
+                <c16:uniqueId val="{00000005-C23D-4E73-BA98-FEF076F2361C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2396,7 +2391,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-422C-4E1D-A968-031B1C71BDDB}"/>
+                <c16:uniqueId val="{00000006-C23D-4E73-BA98-FEF076F2361C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2443,7 +2438,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-422C-4E1D-A968-031B1C71BDDB}"/>
+                  <c16:uniqueId val="{00000000-C23D-4E73-BA98-FEF076F2361C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2489,7 +2484,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-422C-4E1D-A968-031B1C71BDDB}"/>
+                  <c16:uniqueId val="{00000001-C23D-4E73-BA98-FEF076F2361C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2535,7 +2530,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-422C-4E1D-A968-031B1C71BDDB}"/>
+                  <c16:uniqueId val="{00000002-C23D-4E73-BA98-FEF076F2361C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2581,7 +2576,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-422C-4E1D-A968-031B1C71BDDB}"/>
+                  <c16:uniqueId val="{00000003-C23D-4E73-BA98-FEF076F2361C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2627,7 +2622,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-422C-4E1D-A968-031B1C71BDDB}"/>
+                  <c16:uniqueId val="{00000004-C23D-4E73-BA98-FEF076F2361C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2673,7 +2668,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-422C-4E1D-A968-031B1C71BDDB}"/>
+                  <c16:uniqueId val="{00000005-C23D-4E73-BA98-FEF076F2361C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2776,7 +2771,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-422C-4E1D-A968-031B1C71BDDB}"/>
+              <c16:uniqueId val="{00000007-C23D-4E73-BA98-FEF076F2361C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2903,7 +2898,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FD7F25-1893-43AE-9A80-7D2E75A00457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9EFAEB-1355-4BCA-BB7A-7328ABDF8E44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2941,7 @@
         <xdr:cNvPr id="1029" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF700EE3-3629-4683-90A7-8AA96170027A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AE6900-E9EC-4C54-B831-4F4409EAB417}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +2984,7 @@
         <xdr:cNvPr id="2053" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620539FC-0A99-40F6-A574-8B0CE0148BD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D7A817-D652-4AFC-B7D5-F548162AE3EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,13 +3367,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -3405,134 +3400,134 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C30" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
         <f>B5-B4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="39"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="18"/>
@@ -3541,8 +3536,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18"/>
@@ -3551,8 +3546,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="18"/>
@@ -3561,8 +3556,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="18"/>
@@ -3571,8 +3566,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
@@ -3581,8 +3576,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="18"/>
@@ -3591,8 +3586,8 @@
         <f>B22-B21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="18"/>
@@ -3601,8 +3596,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="18"/>
@@ -3611,8 +3606,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="18"/>
@@ -3621,8 +3616,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="18"/>
@@ -3631,8 +3626,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="18"/>
@@ -3641,8 +3636,8 @@
         <f>B27-B26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="18"/>
@@ -3651,8 +3646,8 @@
         <f>B28-B27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="18"/>
@@ -3661,8 +3656,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="18"/>
@@ -3671,8 +3666,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="18"/>
@@ -3681,8 +3676,8 @@
         <f>B31-B30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="18"/>
@@ -3691,8 +3686,8 @@
         <f>B32-B31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="18"/>
@@ -3701,8 +3696,8 @@
         <f>B33-B32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="18"/>
@@ -3711,8 +3706,8 @@
         <f>B34-B33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" ht="17.25" thickBot="1">
       <c r="A35" s="19"/>
@@ -3721,8 +3716,8 @@
         <f>B35-B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="5"/>
@@ -3810,86 +3805,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="64" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="64" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="67"/>
+      <c r="Q2" s="65"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="69" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="57" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="68"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -3940,7 +3935,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -3955,11 +3950,11 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
-      <c r="P5" s="32">
+      <c r="P5" s="31">
         <f>SUM(B5,D5,F5,H5,J5,L5,N5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="32">
         <f>SUM(C5,E5,G5,I5,K5,M5,O5)</f>
         <v>0</v>
       </c>
@@ -3968,7 +3963,7 @@
       <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3983,11 +3978,11 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="32">
+      <c r="P6" s="31">
         <f t="shared" ref="P6:P16" si="0">SUM(B6,D6,F6,H6,J6,L6,N6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="32">
         <f t="shared" ref="Q6:Q16" si="1">SUM(C6,E6,G6,I6,K6,M6,O6)</f>
         <v>0</v>
       </c>
@@ -3996,7 +3991,7 @@
       <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -4011,11 +4006,11 @@
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="32">
+      <c r="P7" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4024,7 +4019,7 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -4039,11 +4034,11 @@
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="32">
+      <c r="P8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4052,26 +4047,26 @@
       <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="32">
+      <c r="A9" s="40"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4079,27 +4074,27 @@
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="1:20" s="27" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="32">
+    <row r="10" spans="1:20" s="26" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4108,26 +4103,26 @@
       <c r="T10" s="25"/>
     </row>
     <row r="11" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="32">
+      <c r="A11" s="40"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4136,26 +4131,26 @@
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="32">
+      <c r="A12" s="40"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4164,26 +4159,26 @@
       <c r="T12" s="25"/>
     </row>
     <row r="13" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="32">
+      <c r="A13" s="40"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4192,26 +4187,26 @@
       <c r="T13" s="25"/>
     </row>
     <row r="14" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="32">
+      <c r="A14" s="40"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4220,26 +4215,26 @@
       <c r="T14" s="25"/>
     </row>
     <row r="15" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="32">
+      <c r="A15" s="40"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4248,26 +4243,26 @@
       <c r="T15" s="25"/>
     </row>
     <row r="16" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="32">
+      <c r="A16" s="40"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4275,153 +4270,153 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="27" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:20" s="26" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="31">
         <f>SUM(B17,D17,F17,H17,J17,L17,N17)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="32">
         <f>SUM(C17,E17,G17,I17,K17,M17,O17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-    </row>
-    <row r="18" spans="1:20" s="37" customFormat="1">
-      <c r="A18" s="36" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+    </row>
+    <row r="18" spans="1:20" s="36" customFormat="1">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="49">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="49">
         <f>IF( $Q$17 = 0,0, ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="49">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <f>IF( $P$17 = 0,0, ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="49">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="49">
         <f>IF( $P$17 = 0,0, ROUND(L17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="49">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="49">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18 - L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="50">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18- M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="51">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="52">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="B19" s="35"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="O20" s="34"/>
+      <c r="O20" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="11">
